--- a/Sam.xlsx
+++ b/Sam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S.No</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Bharathy</t>
+  </si>
+  <si>
+    <t>Ramya</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C8"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -436,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -444,6 +447,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Sam.xlsx
+++ b/Sam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.No</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Ramya</t>
+  </si>
+  <si>
+    <t>chella</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C9"/>
+  <dimension ref="B4:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,6 +461,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
